--- a/full_model_data.xlsx
+++ b/full_model_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\dsp ogpave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\dsp_filer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14AAB0F-573D-4815-9134-3E3854754B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE1DECD-0242-475E-9345-9D77919B5F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Subs_per_day</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,10 +487,11 @@
     <col min="7" max="7" width="11.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -515,8 +519,11 @@
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44180</v>
       </c>
@@ -545,8 +552,11 @@
         <f>12.72-13.31</f>
         <v>-0.58999999999999986</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44181</v>
       </c>
@@ -575,8 +585,11 @@
         <f>D3-12.72</f>
         <v>1.1300003814697295</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44182</v>
       </c>
@@ -605,8 +618,11 @@
         <f>D3-D2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44183</v>
       </c>
@@ -632,11 +648,14 @@
         <v>16618800</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I5:I62" si="0">D4-D3</f>
+        <f t="shared" ref="I5:I61" si="0">D4-D3</f>
         <v>0.97999954223631924</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44186</v>
       </c>
@@ -665,8 +684,11 @@
         <f t="shared" si="0"/>
         <v>0.80000019073487039</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44187</v>
       </c>
@@ -695,8 +717,11 @@
         <f t="shared" si="0"/>
         <v>-0.10000038146973012</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44188</v>
       </c>
@@ -725,8 +750,11 @@
         <f t="shared" si="0"/>
         <v>3.9299993515014702</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44193</v>
       </c>
@@ -755,8 +783,11 @@
         <f t="shared" si="0"/>
         <v>1.1100006103515589</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44194</v>
       </c>
@@ -785,8 +816,11 @@
         <f t="shared" si="0"/>
         <v>0.42000007629394176</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44195</v>
       </c>
@@ -815,8 +849,11 @@
         <f t="shared" si="0"/>
         <v>-1.6100006103515589</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44196</v>
       </c>
@@ -845,8 +882,11 @@
         <f t="shared" si="0"/>
         <v>-0.11999893188476207</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44200</v>
       </c>
@@ -875,8 +915,11 @@
         <f t="shared" si="0"/>
         <v>-0.42000007629394887</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44201</v>
       </c>
@@ -905,8 +948,11 @@
         <f t="shared" si="0"/>
         <v>-1.5900001525878906</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44202</v>
       </c>
@@ -935,8 +981,11 @@
         <f t="shared" si="0"/>
         <v>0.12000083923339844</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44203</v>
       </c>
@@ -965,8 +1014,11 @@
         <f t="shared" si="0"/>
         <v>0.98999977111816051</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44204</v>
       </c>
@@ -995,8 +1047,11 @@
         <f t="shared" si="0"/>
         <v>-0.28000068664550781</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="5">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44207</v>
       </c>
@@ -1025,8 +1080,11 @@
         <f t="shared" si="0"/>
         <v>-0.38999938964843039</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44208</v>
       </c>
@@ -1055,8 +1113,11 @@
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44209</v>
       </c>
@@ -1085,8 +1146,11 @@
         <f t="shared" si="0"/>
         <v>1.0000228881828832E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="5">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44210</v>
       </c>
@@ -1115,8 +1179,11 @@
         <f t="shared" si="0"/>
         <v>11.44999885559082</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="5">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44211</v>
       </c>
@@ -1145,8 +1212,11 @@
         <f t="shared" si="0"/>
         <v>8.5100002288818395</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="5">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44215</v>
       </c>
@@ -1175,8 +1245,11 @@
         <f t="shared" si="0"/>
         <v>-4.4099998474121094</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="5">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44216</v>
       </c>
@@ -1205,8 +1278,11 @@
         <f t="shared" si="0"/>
         <v>3.8600006103515625</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="5">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44217</v>
       </c>
@@ -1235,8 +1311,11 @@
         <f t="shared" si="0"/>
         <v>-0.24000167846678977</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="5">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44218</v>
       </c>
@@ -1265,8 +1344,11 @@
         <f t="shared" si="0"/>
         <v>3.9099998474121094</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="5">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44221</v>
       </c>
@@ -1295,8 +1377,11 @@
         <f t="shared" si="0"/>
         <v>21.980003356933587</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="5">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44222</v>
       </c>
@@ -1325,8 +1410,11 @@
         <f t="shared" si="0"/>
         <v>11.779998779296875</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="5">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44223</v>
       </c>
@@ -1355,8 +1443,11 @@
         <f t="shared" si="0"/>
         <v>71.189994812011747</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="5">
+        <v>22488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44224</v>
       </c>
@@ -1385,8 +1476,11 @@
         <f t="shared" si="0"/>
         <v>199.53001403808591</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="5">
+        <v>77995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44225</v>
       </c>
@@ -1415,8 +1509,11 @@
         <f t="shared" si="0"/>
         <v>-153.9100036621094</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="5">
+        <v>54281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44228</v>
       </c>
@@ -1445,8 +1542,11 @@
         <f t="shared" si="0"/>
         <v>131.3999938964844</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="5">
+        <v>38826</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44229</v>
       </c>
@@ -1475,8 +1575,11 @@
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="5">
+        <v>41411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44230</v>
       </c>
@@ -1505,8 +1608,11 @@
         <f t="shared" si="0"/>
         <v>-135</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="5">
+        <v>18805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44231</v>
       </c>
@@ -1535,801 +1641,870 @@
         <f t="shared" si="0"/>
         <v>2.410003662109375</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="5">
+        <v>11433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>44232</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
         <v>44235</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B36" s="5">
         <v>6873</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C36" s="6">
         <v>60</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D36" s="6">
         <v>60</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E36" s="6">
         <v>72.660003662109375</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F36" s="6">
         <v>58.020000457763672</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G36" s="6">
         <v>72.410003662109375</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H36" s="6">
         <v>25687300</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I36" s="6">
         <f>D35-D34</f>
         <v>-38.910003662109375</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="5">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44236</v>
+      </c>
+      <c r="B37" s="5">
+        <v>8226</v>
+      </c>
+      <c r="C37" s="6">
+        <v>50.310001373291023</v>
+      </c>
+      <c r="D37" s="6">
+        <v>50.310001373291023</v>
+      </c>
+      <c r="E37" s="6">
+        <v>57</v>
+      </c>
+      <c r="F37" s="6">
+        <v>46.520000457763672</v>
+      </c>
+      <c r="G37" s="6">
+        <v>56.610000610351563</v>
+      </c>
+      <c r="H37" s="6">
+        <v>26843100</v>
+      </c>
+      <c r="I37" s="6">
+        <f>D36-D35</f>
+        <v>6.5</v>
+      </c>
+      <c r="J37" s="5">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B38" s="5">
-        <v>8226</v>
+        <v>10987</v>
       </c>
       <c r="C38" s="6">
-        <v>50.310001373291023</v>
+        <v>51.200000762939453</v>
       </c>
       <c r="D38" s="6">
-        <v>50.310001373291023</v>
+        <v>51.200000762939453</v>
       </c>
       <c r="E38" s="6">
-        <v>57</v>
+        <v>62.830001831054688</v>
       </c>
       <c r="F38" s="6">
-        <v>46.520000457763672</v>
+        <v>46.549999237060547</v>
       </c>
       <c r="G38" s="6">
-        <v>56.610000610351563</v>
+        <v>50.770000457763672</v>
       </c>
       <c r="H38" s="6">
-        <v>26843100</v>
+        <v>36455000</v>
       </c>
       <c r="I38" s="6">
-        <f>D37-D35</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-9.6899986267089773</v>
+      </c>
+      <c r="J38" s="5">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B39" s="5">
-        <v>10987</v>
+        <v>13632</v>
       </c>
       <c r="C39" s="6">
-        <v>51.200000762939453</v>
+        <v>51.099998474121087</v>
       </c>
       <c r="D39" s="6">
-        <v>51.200000762939453</v>
+        <v>51.099998474121087</v>
       </c>
       <c r="E39" s="6">
-        <v>62.830001831054688</v>
+        <v>55.319999694824219</v>
       </c>
       <c r="F39" s="6">
-        <v>46.549999237060547</v>
+        <v>48.220001220703118</v>
       </c>
       <c r="G39" s="6">
-        <v>50.770000457763672</v>
+        <v>50.009998321533203</v>
       </c>
       <c r="H39" s="6">
-        <v>36455000</v>
+        <v>12997400</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="0"/>
-        <v>-9.6899986267089773</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.88999938964843039</v>
+      </c>
+      <c r="J39" s="5">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B40" s="5">
-        <v>13632</v>
+        <v>8573</v>
       </c>
       <c r="C40" s="6">
-        <v>51.099998474121087</v>
+        <v>52.400001525878913</v>
       </c>
       <c r="D40" s="6">
-        <v>51.099998474121087</v>
+        <v>52.400001525878913</v>
       </c>
       <c r="E40" s="6">
-        <v>55.319999694824219</v>
+        <v>55.240001678466797</v>
       </c>
       <c r="F40" s="6">
-        <v>48.220001220703118</v>
+        <v>48.049999237060547</v>
       </c>
       <c r="G40" s="6">
-        <v>50.009998321533203</v>
+        <v>50.75</v>
       </c>
       <c r="H40" s="6">
-        <v>12997400</v>
+        <v>14498000</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="0"/>
-        <v>0.88999938964843039</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-0.10000228881836648</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>44239</v>
+        <v>44243</v>
       </c>
       <c r="B41" s="5">
-        <v>8573</v>
+        <v>2166</v>
       </c>
       <c r="C41" s="6">
-        <v>52.400001525878913</v>
+        <v>49.509998321533203</v>
       </c>
       <c r="D41" s="6">
-        <v>52.400001525878913</v>
+        <v>49.509998321533203</v>
       </c>
       <c r="E41" s="6">
-        <v>55.240001678466797</v>
+        <v>53.5</v>
       </c>
       <c r="F41" s="6">
-        <v>48.049999237060547</v>
+        <v>49.040000915527337</v>
       </c>
       <c r="G41" s="6">
-        <v>50.75</v>
+        <v>52.659999847412109</v>
       </c>
       <c r="H41" s="6">
-        <v>14498000</v>
+        <v>8175000</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="0"/>
-        <v>-0.10000228881836648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3000030517578267</v>
+      </c>
+      <c r="J41" s="5">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B42" s="5">
-        <v>2166</v>
+        <v>2064</v>
       </c>
       <c r="C42" s="6">
-        <v>49.509998321533203</v>
+        <v>45.939998626708977</v>
       </c>
       <c r="D42" s="6">
-        <v>49.509998321533203</v>
+        <v>45.939998626708977</v>
       </c>
       <c r="E42" s="6">
-        <v>53.5</v>
+        <v>51.189998626708977</v>
       </c>
       <c r="F42" s="6">
-        <v>49.040000915527337</v>
+        <v>44.560001373291023</v>
       </c>
       <c r="G42" s="6">
-        <v>52.659999847412109</v>
+        <v>49.770000457763672</v>
       </c>
       <c r="H42" s="6">
-        <v>8175000</v>
+        <v>9186800</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="0"/>
-        <v>1.3000030517578267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-2.8900032043457102</v>
+      </c>
+      <c r="J42" s="5">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B43" s="5">
-        <v>2064</v>
+        <v>6492</v>
       </c>
       <c r="C43" s="6">
-        <v>45.939998626708977</v>
+        <v>40.689998626708977</v>
       </c>
       <c r="D43" s="6">
-        <v>45.939998626708977</v>
+        <v>40.689998626708977</v>
       </c>
       <c r="E43" s="6">
-        <v>51.189998626708977</v>
+        <v>48.869998931884773</v>
       </c>
       <c r="F43" s="6">
-        <v>44.560001373291023</v>
+        <v>40.650001525878913</v>
       </c>
       <c r="G43" s="6">
-        <v>49.770000457763672</v>
+        <v>48.490001678466797</v>
       </c>
       <c r="H43" s="6">
-        <v>9186800</v>
+        <v>23990600</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="0"/>
-        <v>-2.8900032043457102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-3.5699996948242259</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="B44" s="5">
-        <v>6492</v>
+        <v>5010</v>
       </c>
       <c r="C44" s="6">
-        <v>40.689998626708977</v>
+        <v>40.590000152587891</v>
       </c>
       <c r="D44" s="6">
-        <v>40.689998626708977</v>
+        <v>40.590000152587891</v>
       </c>
       <c r="E44" s="6">
-        <v>48.869998931884773</v>
+        <v>43.889999389648438</v>
       </c>
       <c r="F44" s="6">
-        <v>40.650001525878913</v>
+        <v>38.5</v>
       </c>
       <c r="G44" s="6">
-        <v>48.490001678466797</v>
+        <v>41.279998779296882</v>
       </c>
       <c r="H44" s="6">
-        <v>23990600</v>
+        <v>14828200</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="0"/>
-        <v>-3.5699996948242259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-5.25</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44246</v>
+        <v>44249</v>
       </c>
       <c r="B45" s="5">
-        <v>5010</v>
+        <v>3922</v>
       </c>
       <c r="C45" s="6">
-        <v>40.590000152587891</v>
+        <v>46</v>
       </c>
       <c r="D45" s="6">
-        <v>40.590000152587891</v>
+        <v>46</v>
       </c>
       <c r="E45" s="6">
-        <v>43.889999389648438</v>
+        <v>48.509998321533203</v>
       </c>
       <c r="F45" s="6">
-        <v>38.5</v>
+        <v>42.400001525878913</v>
       </c>
       <c r="G45" s="6">
-        <v>41.279998779296882</v>
+        <v>46.689998626708977</v>
       </c>
       <c r="H45" s="6">
-        <v>14828200</v>
+        <v>19476000</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="0"/>
-        <v>-5.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-9.9998474121086645E-2</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B46" s="5">
-        <v>3922</v>
+        <v>4166</v>
       </c>
       <c r="C46" s="6">
-        <v>46</v>
+        <v>44.970001220703118</v>
       </c>
       <c r="D46" s="6">
-        <v>46</v>
+        <v>44.970001220703118</v>
       </c>
       <c r="E46" s="6">
-        <v>48.509998321533203</v>
+        <v>46.229999542236328</v>
       </c>
       <c r="F46" s="6">
-        <v>42.400001525878913</v>
+        <v>40</v>
       </c>
       <c r="G46" s="6">
-        <v>46.689998626708977</v>
+        <v>44.970001220703118</v>
       </c>
       <c r="H46" s="6">
-        <v>19476000</v>
+        <v>7565200</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="0"/>
-        <v>-9.9998474121086645E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.4099998474121094</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B47" s="5">
-        <v>4166</v>
+        <v>7590</v>
       </c>
       <c r="C47" s="6">
-        <v>44.970001220703118</v>
+        <v>91.709999084472656</v>
       </c>
       <c r="D47" s="6">
-        <v>44.970001220703118</v>
+        <v>91.709999084472656</v>
       </c>
       <c r="E47" s="6">
-        <v>46.229999542236328</v>
+        <v>91.709999084472656</v>
       </c>
       <c r="F47" s="6">
-        <v>40</v>
+        <v>44.700000762939453</v>
       </c>
       <c r="G47" s="6">
-        <v>44.970001220703118</v>
+        <v>44.700000762939453</v>
       </c>
       <c r="H47" s="6">
-        <v>7565200</v>
+        <v>83111700</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="0"/>
-        <v>5.4099998474121094</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-1.0299987792968821</v>
+      </c>
+      <c r="J47" s="5">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B48" s="5">
-        <v>7590</v>
+        <v>15408</v>
       </c>
       <c r="C48" s="6">
-        <v>91.709999084472656</v>
+        <v>108.73000335693359</v>
       </c>
       <c r="D48" s="6">
-        <v>91.709999084472656</v>
+        <v>108.73000335693359</v>
       </c>
       <c r="E48" s="6">
-        <v>91.709999084472656</v>
+        <v>184.67999267578119</v>
       </c>
       <c r="F48" s="6">
-        <v>44.700000762939453</v>
+        <v>101</v>
       </c>
       <c r="G48" s="6">
-        <v>44.700000762939453</v>
+        <v>169.55999755859381</v>
       </c>
       <c r="H48" s="6">
-        <v>83111700</v>
+        <v>150308800</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="0"/>
-        <v>-1.0299987792968821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46.739997863769538</v>
+      </c>
+      <c r="J48" s="5">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B49" s="5">
-        <v>15408</v>
+        <v>8837</v>
       </c>
       <c r="C49" s="6">
-        <v>108.73000335693359</v>
+        <v>101.7399978637695</v>
       </c>
       <c r="D49" s="6">
-        <v>108.73000335693359</v>
+        <v>101.7399978637695</v>
       </c>
       <c r="E49" s="6">
-        <v>184.67999267578119</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="F49" s="6">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G49" s="6">
-        <v>169.55999755859381</v>
+        <v>117.4599990844727</v>
       </c>
       <c r="H49" s="6">
-        <v>150308800</v>
+        <v>91963000</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="0"/>
-        <v>46.739997863769538</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17.020004272460938</v>
+      </c>
+      <c r="J49" s="5">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="B50" s="5">
-        <v>8837</v>
+        <v>3943</v>
       </c>
       <c r="C50" s="6">
-        <v>101.7399978637695</v>
+        <v>118.1800003051758</v>
       </c>
       <c r="D50" s="6">
-        <v>101.7399978637695</v>
+        <v>118.1800003051758</v>
       </c>
       <c r="E50" s="6">
-        <v>142.8999938964844</v>
+        <v>133.19999694824219</v>
       </c>
       <c r="F50" s="6">
-        <v>86</v>
+        <v>112.1999969482422</v>
       </c>
       <c r="G50" s="6">
-        <v>117.4599990844727</v>
+        <v>116.9300003051758</v>
       </c>
       <c r="H50" s="6">
-        <v>91963000</v>
+        <v>33640400</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="0"/>
-        <v>17.020004272460938</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-6.9900054931640909</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B51" s="5">
-        <v>3943</v>
+        <v>7222</v>
       </c>
       <c r="C51" s="6">
-        <v>118.1800003051758</v>
+        <v>124.1800003051758</v>
       </c>
       <c r="D51" s="6">
-        <v>118.1800003051758</v>
+        <v>124.1800003051758</v>
       </c>
       <c r="E51" s="6">
-        <v>133.19999694824219</v>
+        <v>127.75</v>
       </c>
       <c r="F51" s="6">
-        <v>112.1999969482422</v>
+        <v>113.120002746582</v>
       </c>
       <c r="G51" s="6">
-        <v>116.9300003051758</v>
+        <v>122.5100021362305</v>
       </c>
       <c r="H51" s="6">
-        <v>33640400</v>
+        <v>19173700</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="0"/>
-        <v>-6.9900054931640909</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16.440002441406293</v>
+      </c>
+      <c r="J51" s="5">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B52" s="5">
-        <v>7222</v>
+        <v>6025</v>
       </c>
       <c r="C52" s="6">
-        <v>124.1800003051758</v>
+        <v>132.3500061035156</v>
       </c>
       <c r="D52" s="6">
-        <v>124.1800003051758</v>
+        <v>132.3500061035156</v>
       </c>
       <c r="E52" s="6">
-        <v>127.75</v>
+        <v>147.8699951171875</v>
       </c>
       <c r="F52" s="6">
-        <v>113.120002746582</v>
+        <v>115.3000030517578</v>
       </c>
       <c r="G52" s="6">
-        <v>122.5100021362305</v>
+        <v>125</v>
       </c>
       <c r="H52" s="6">
-        <v>19173700</v>
+        <v>32473600</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="0"/>
-        <v>16.440002441406293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J52" s="5">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B53" s="5">
-        <v>6025</v>
+        <v>1303</v>
       </c>
       <c r="C53" s="6">
-        <v>132.3500061035156</v>
+        <v>137.74000549316409</v>
       </c>
       <c r="D53" s="6">
-        <v>132.3500061035156</v>
+        <v>137.74000549316409</v>
       </c>
       <c r="E53" s="6">
-        <v>147.8699951171875</v>
+        <v>151.5299987792969</v>
       </c>
       <c r="F53" s="6">
-        <v>115.3000030517578</v>
+        <v>127.5</v>
       </c>
       <c r="G53" s="6">
-        <v>125</v>
+        <v>128.16999816894531</v>
       </c>
       <c r="H53" s="6">
-        <v>32473600</v>
+        <v>30660200</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.1700057983398011</v>
+      </c>
+      <c r="J53" s="5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>44260</v>
+        <v>44263</v>
       </c>
       <c r="B54" s="5">
-        <v>1303</v>
+        <v>3572</v>
       </c>
       <c r="C54" s="6">
-        <v>137.74000549316409</v>
+        <v>194.5</v>
       </c>
       <c r="D54" s="6">
-        <v>137.74000549316409</v>
+        <v>194.5</v>
       </c>
       <c r="E54" s="6">
-        <v>151.5299987792969</v>
+        <v>210.8699951171875</v>
       </c>
       <c r="F54" s="6">
-        <v>127.5</v>
+        <v>146.1000061035156</v>
       </c>
       <c r="G54" s="6">
-        <v>128.16999816894531</v>
+        <v>154.88999938964841</v>
       </c>
       <c r="H54" s="6">
-        <v>30660200</v>
+        <v>63424800</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="0"/>
-        <v>8.1700057983398011</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.3899993896484943</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B55" s="5">
-        <v>3572</v>
+        <v>6823</v>
       </c>
       <c r="C55" s="6">
-        <v>194.5</v>
+        <v>246.8999938964844</v>
       </c>
       <c r="D55" s="6">
-        <v>194.5</v>
+        <v>246.8999938964844</v>
       </c>
       <c r="E55" s="6">
-        <v>210.8699951171875</v>
+        <v>249.8500061035156</v>
       </c>
       <c r="F55" s="6">
-        <v>146.1000061035156</v>
+        <v>208.50999450683591</v>
       </c>
       <c r="G55" s="6">
-        <v>154.88999938964841</v>
+        <v>217.71000671386719</v>
       </c>
       <c r="H55" s="6">
-        <v>63424800</v>
+        <v>38725800</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="0"/>
-        <v>5.3899993896484943</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56.759994506835909</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B56" s="5">
-        <v>6823</v>
+        <v>11983</v>
       </c>
       <c r="C56" s="6">
-        <v>246.8999938964844</v>
+        <v>265</v>
       </c>
       <c r="D56" s="6">
-        <v>246.8999938964844</v>
+        <v>265</v>
       </c>
       <c r="E56" s="6">
-        <v>249.8500061035156</v>
+        <v>348.5</v>
       </c>
       <c r="F56" s="6">
-        <v>208.50999450683591</v>
+        <v>172</v>
       </c>
       <c r="G56" s="6">
-        <v>217.71000671386719</v>
+        <v>269.42999267578119</v>
       </c>
       <c r="H56" s="6">
-        <v>38725800</v>
+        <v>71361900</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="0"/>
-        <v>56.759994506835909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52.399993896484403</v>
+      </c>
+      <c r="J56" s="5">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B57" s="5">
-        <v>11983</v>
+        <v>6543</v>
       </c>
       <c r="C57" s="6">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D57" s="6">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E57" s="6">
-        <v>348.5</v>
+        <v>281.5</v>
       </c>
       <c r="F57" s="6">
-        <v>172</v>
+        <v>232.6000061035156</v>
       </c>
       <c r="G57" s="6">
-        <v>269.42999267578119</v>
+        <v>241.63999938964841</v>
       </c>
       <c r="H57" s="6">
-        <v>71361900</v>
+        <v>28186000</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="0"/>
-        <v>52.399993896484403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18.100006103515597</v>
+      </c>
+      <c r="J57" s="5">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B58" s="5">
-        <v>6543</v>
+        <v>5215</v>
       </c>
       <c r="C58" s="6">
-        <v>260</v>
+        <v>264.5</v>
       </c>
       <c r="D58" s="6">
-        <v>260</v>
+        <v>264.5</v>
       </c>
       <c r="E58" s="6">
-        <v>281.5</v>
+        <v>295.5</v>
       </c>
       <c r="F58" s="6">
-        <v>232.6000061035156</v>
+        <v>262.26998901367188</v>
       </c>
       <c r="G58" s="6">
-        <v>241.63999938964841</v>
+        <v>275</v>
       </c>
       <c r="H58" s="6">
-        <v>28186000</v>
+        <v>25760700</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="0"/>
-        <v>18.100006103515597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+      <c r="J58" s="5">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>44267</v>
+        <v>44270</v>
       </c>
       <c r="B59" s="5">
-        <v>5215</v>
+        <v>4157</v>
       </c>
       <c r="C59" s="6">
-        <v>264.5</v>
+        <v>220.13999938964841</v>
       </c>
       <c r="D59" s="6">
-        <v>264.5</v>
+        <v>220.13999938964841</v>
       </c>
       <c r="E59" s="6">
-        <v>295.5</v>
+        <v>283</v>
       </c>
       <c r="F59" s="6">
-        <v>262.26998901367188</v>
+        <v>206</v>
       </c>
       <c r="G59" s="6">
-        <v>275</v>
+        <v>277.51998901367188</v>
       </c>
       <c r="H59" s="6">
-        <v>25760700</v>
+        <v>24100400</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B60" s="5">
-        <v>4157</v>
+        <v>4704</v>
       </c>
       <c r="C60" s="6">
-        <v>220.13999938964841</v>
+        <v>208.16999816894531</v>
       </c>
       <c r="D60" s="6">
-        <v>220.13999938964841</v>
+        <v>208.16999816894531</v>
       </c>
       <c r="E60" s="6">
-        <v>283</v>
+        <v>220.69999694824219</v>
       </c>
       <c r="F60" s="6">
-        <v>206</v>
+        <v>172.3500061035156</v>
       </c>
       <c r="G60" s="6">
-        <v>277.51998901367188</v>
+        <v>203.1600036621094</v>
       </c>
       <c r="H60" s="6">
-        <v>24100400</v>
+        <v>35241900</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-44.360000610351591</v>
+      </c>
+      <c r="J60" s="5">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B61" s="5">
-        <v>4704</v>
+        <v>2436</v>
       </c>
       <c r="C61" s="6">
-        <v>208.16999816894531</v>
+        <v>209.80999755859381</v>
       </c>
       <c r="D61" s="6">
-        <v>208.16999816894531</v>
+        <v>209.80999755859381</v>
       </c>
       <c r="E61" s="6">
-        <v>220.69999694824219</v>
+        <v>231.4700012207031</v>
       </c>
       <c r="F61" s="6">
-        <v>172.3500061035156</v>
+        <v>204</v>
       </c>
       <c r="G61" s="6">
-        <v>203.1600036621094</v>
+        <v>217.8399963378906</v>
       </c>
       <c r="H61" s="6">
-        <v>35241900</v>
+        <v>16259300</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="0"/>
-        <v>-44.360000610351591</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>44272</v>
-      </c>
-      <c r="B62" s="5">
-        <v>2436</v>
-      </c>
-      <c r="C62" s="6">
-        <v>209.80999755859381</v>
-      </c>
-      <c r="D62" s="6">
-        <v>209.80999755859381</v>
-      </c>
-      <c r="E62" s="6">
-        <v>231.4700012207031</v>
-      </c>
-      <c r="F62" s="6">
-        <v>204</v>
-      </c>
-      <c r="G62" s="6">
-        <v>217.8399963378906</v>
-      </c>
-      <c r="H62" s="6">
-        <v>16259300</v>
-      </c>
-      <c r="I62" s="6">
-        <f t="shared" si="0"/>
         <v>-11.970001220703097</v>
       </c>
+      <c r="J61" s="5">
+        <v>1035</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B59">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
